--- a/supplementary_data/GOR4_vs_SSpro6_reference.xlsx
+++ b/supplementary_data/GOR4_vs_SSpro6_reference.xlsx
@@ -354,7 +354,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +372,13 @@
       <b/>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -846,137 +853,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,13 +996,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1534,7 +1538,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1546,7 +1550,7 @@
     <col min="5" max="5" width="21.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3247,7 +3251,7 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B101" s="1">
